--- a/spec/fixtures/filled_template.xlsx
+++ b/spec/fixtures/filled_template.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10308"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="11108"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/jpnelson/2020/sul-dlss/infrastructure-integration-test/spec/fixtures/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A16EE857-B0A1-5445-8D1C-384F9D4414D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F637191-2B38-674F-AD9C-A4B61CDCCD75}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3780" yWindow="3260" windowWidth="28800" windowHeight="12440" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -86,7 +86,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2284" uniqueCount="1143">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2290" uniqueCount="1155">
   <si>
     <t>Identification</t>
   </si>
@@ -3515,13 +3515,49 @@
   </si>
   <si>
     <t>mw605wr9855</t>
+  </si>
+  <si>
+    <t>naf</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/authorities/names</t>
+  </si>
+  <si>
+    <t>publication</t>
+  </si>
+  <si>
+    <t>creation</t>
+  </si>
+  <si>
+    <t>http://id.loc.gov/vocabulary/subjectSchemes/lcsh</t>
+  </si>
+  <si>
+    <t>lcsh</t>
+  </si>
+  <si>
+    <t>ri1:or:eventType</t>
+  </si>
+  <si>
+    <t>publisher</t>
+  </si>
+  <si>
+    <t>ri2:or:eventType</t>
+  </si>
+  <si>
+    <t>Origin</t>
+  </si>
+  <si>
+    <t>ri3:or:eventType</t>
+  </si>
+  <si>
+    <t>production</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="12" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -3603,6 +3639,13 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF000000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="4">
     <fill>
@@ -3624,7 +3667,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="14">
+  <borders count="15">
     <border>
       <left/>
       <right/>
@@ -3753,11 +3796,20 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color rgb="FFA6A6A6"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="69">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -3941,6 +3993,9 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -4221,15 +4276,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:APB4"/>
+  <dimension ref="A1:APD4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D7" sqref="D7"/>
+    <sheetView tabSelected="1" topLeftCell="ALI1" workbookViewId="0">
+      <selection activeCell="AMF3" sqref="AMF3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:1094" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:1096" s="22" customFormat="1" ht="21" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5470,60 +5525,60 @@
       <c r="AIN1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AIO1" s="1"/>
+      <c r="AIO1" s="3"/>
       <c r="AIP1" s="1"/>
       <c r="AIQ1" s="1"/>
       <c r="AIR1" s="1"/>
       <c r="AIS1" s="1"/>
-      <c r="AIT1" s="23" t="s">
+      <c r="AIT1" s="1"/>
+      <c r="AIU1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AIU1" s="11" t="s">
+      <c r="AIV1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AIV1" s="17"/>
       <c r="AIW1" s="17"/>
-      <c r="AIX1" s="24" t="s">
+      <c r="AIX1" s="17"/>
+      <c r="AIY1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="AIY1" s="11" t="s">
+      <c r="AIZ1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="AIZ1" s="17"/>
       <c r="AJA1" s="17"/>
-      <c r="AJB1" s="24" t="s">
+      <c r="AJB1" s="17"/>
+      <c r="AJC1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="AJC1" s="11" t="s">
+      <c r="AJD1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="AJD1" s="17"/>
       <c r="AJE1" s="17"/>
-      <c r="AJF1" s="24" t="s">
+      <c r="AJF1" s="17"/>
+      <c r="AJG1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="AJG1" s="22" t="s">
+      <c r="AJH1" s="22" t="s">
         <v>84</v>
       </c>
-      <c r="AJJ1" s="22" t="s">
+      <c r="AJK1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="AJK1" s="22" t="s">
+      <c r="AJL1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="AJP1" s="22" t="s">
+      <c r="AJQ1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="AJU1" s="22" t="s">
+      <c r="AJV1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AJZ1" s="23" t="s">
+      <c r="AKA1" s="23" t="s">
         <v>78</v>
       </c>
-      <c r="AKA1" s="2" t="s">
+      <c r="AKB1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AKB1" s="3"/>
       <c r="AKC1" s="3"/>
       <c r="AKD1" s="3"/>
       <c r="AKE1" s="3"/>
@@ -5536,69 +5591,69 @@
       <c r="AKL1" s="3"/>
       <c r="AKM1" s="3"/>
       <c r="AKN1" s="3"/>
-      <c r="AKO1" s="1"/>
+      <c r="AKO1" s="3"/>
       <c r="AKP1" s="1"/>
-      <c r="AKQ1" s="2" t="s">
+      <c r="AKQ1" s="1"/>
+      <c r="AKR1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AKR1" s="1"/>
-      <c r="AKS1" s="1"/>
+      <c r="AKS1" s="3"/>
       <c r="AKT1" s="1"/>
       <c r="AKU1" s="1"/>
       <c r="AKV1" s="1"/>
-      <c r="AKW1" s="23" t="s">
+      <c r="AKW1" s="1"/>
+      <c r="AKX1" s="1"/>
+      <c r="AKY1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="AKX1" s="11" t="s">
+      <c r="AKZ1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="AKY1" s="17"/>
-      <c r="AKZ1" s="17"/>
-      <c r="ALA1" s="24" t="s">
+      <c r="ALA1" s="17"/>
+      <c r="ALB1" s="17"/>
+      <c r="ALC1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="ALB1" s="11" t="s">
+      <c r="ALD1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="ALC1" s="17"/>
-      <c r="ALD1" s="17"/>
-      <c r="ALE1" s="24" t="s">
+      <c r="ALE1" s="17"/>
+      <c r="ALF1" s="17"/>
+      <c r="ALG1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="ALF1" s="11" t="s">
+      <c r="ALH1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="ALG1" s="17"/>
-      <c r="ALH1" s="17"/>
-      <c r="ALI1" s="24" t="s">
+      <c r="ALI1" s="17"/>
+      <c r="ALJ1" s="17"/>
+      <c r="ALK1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="ALJ1" s="23" t="s">
+      <c r="ALL1" s="23" t="s">
         <v>84</v>
       </c>
-      <c r="ALK1" s="22" t="s">
+      <c r="ALM1" s="22" t="s">
         <v>85</v>
       </c>
-      <c r="ALN1" s="22" t="s">
+      <c r="ALP1" s="22" t="s">
         <v>77</v>
       </c>
-      <c r="ALO1" s="22" t="s">
+      <c r="ALQ1" s="22" t="s">
         <v>78</v>
       </c>
-      <c r="ALT1" s="22" t="s">
+      <c r="ALV1" s="22" t="s">
         <v>79</v>
       </c>
-      <c r="ALY1" s="22" t="s">
+      <c r="AMA1" s="22" t="s">
         <v>80</v>
       </c>
-      <c r="AMD1" s="23" t="s">
-        <v>78</v>
-      </c>
-      <c r="AME1" s="2" t="s">
+      <c r="AMF1" s="23" t="s">
+        <v>1152</v>
+      </c>
+      <c r="AMG1" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="AMF1" s="3"/>
-      <c r="AMG1" s="3"/>
       <c r="AMH1" s="3"/>
       <c r="AMI1" s="3"/>
       <c r="AMJ1" s="3"/>
@@ -5610,48 +5665,48 @@
       <c r="AMP1" s="3"/>
       <c r="AMQ1" s="3"/>
       <c r="AMR1" s="3"/>
-      <c r="AMS1" s="1"/>
-      <c r="AMT1" s="1"/>
-      <c r="AMU1" s="2" t="s">
+      <c r="AMS1" s="3"/>
+      <c r="AMT1" s="3"/>
+      <c r="AMU1" s="1"/>
+      <c r="AMV1" s="1"/>
+      <c r="AMW1" s="2" t="s">
         <v>82</v>
       </c>
-      <c r="AMV1" s="1"/>
-      <c r="AMW1" s="1"/>
       <c r="AMX1" s="1"/>
       <c r="AMY1" s="1"/>
       <c r="AMZ1" s="1"/>
-      <c r="ANA1" s="23" t="s">
+      <c r="ANA1" s="1"/>
+      <c r="ANB1" s="1"/>
+      <c r="ANC1" s="23" t="s">
         <v>83</v>
       </c>
-      <c r="ANB1" s="11" t="s">
+      <c r="AND1" s="11" t="s">
         <v>71</v>
       </c>
-      <c r="ANC1" s="17"/>
-      <c r="AND1" s="17"/>
-      <c r="ANE1" s="24" t="s">
+      <c r="ANE1" s="17"/>
+      <c r="ANF1" s="17"/>
+      <c r="ANG1" s="24" t="s">
         <v>71</v>
       </c>
-      <c r="ANF1" s="11" t="s">
+      <c r="ANH1" s="11" t="s">
         <v>72</v>
       </c>
-      <c r="ANG1" s="17"/>
-      <c r="ANH1" s="17"/>
-      <c r="ANI1" s="24" t="s">
+      <c r="ANI1" s="17"/>
+      <c r="ANJ1" s="17"/>
+      <c r="ANK1" s="24" t="s">
         <v>72</v>
       </c>
-      <c r="ANJ1" s="11" t="s">
+      <c r="ANL1" s="11" t="s">
         <v>73</v>
       </c>
-      <c r="ANK1" s="17"/>
-      <c r="ANL1" s="17"/>
-      <c r="ANM1" s="24" t="s">
+      <c r="ANM1" s="17"/>
+      <c r="ANN1" s="17"/>
+      <c r="ANO1" s="24" t="s">
         <v>73</v>
       </c>
-      <c r="ANN1" s="23" t="s">
+      <c r="ANP1" s="23" t="s">
         <v>85</v>
       </c>
-      <c r="ANO1" s="23"/>
-      <c r="ANP1" s="23"/>
       <c r="ANQ1" s="23"/>
       <c r="ANR1" s="23"/>
       <c r="ANS1" s="23"/>
@@ -5659,20 +5714,22 @@
       <c r="ANU1" s="23"/>
       <c r="ANV1" s="23"/>
       <c r="ANW1" s="23"/>
-      <c r="ANX1" s="23" t="s">
+      <c r="ANX1" s="23"/>
+      <c r="ANY1" s="23"/>
+      <c r="ANZ1" s="23" t="s">
         <v>86</v>
       </c>
-      <c r="ANY1" s="25" t="s">
+      <c r="AOA1" s="25" t="s">
         <v>87</v>
       </c>
-      <c r="ANZ1" s="26"/>
-      <c r="AOA1" s="26"/>
-      <c r="AOJ1" s="27"/>
-      <c r="AOT1" s="27"/>
-      <c r="AOX1" s="27"/>
-      <c r="APB1" s="27"/>
+      <c r="AOB1" s="26"/>
+      <c r="AOC1" s="26"/>
+      <c r="AOL1" s="27"/>
+      <c r="AOV1" s="27"/>
+      <c r="AOZ1" s="27"/>
+      <c r="APD1" s="27"/>
     </row>
-    <row r="2" spans="1:1094" s="33" customFormat="1" ht="68" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:1096" s="33" customFormat="1" ht="68" x14ac:dyDescent="0.2">
       <c r="A2" s="28" t="s">
         <v>88</v>
       </c>
@@ -8365,482 +8422,490 @@
       <c r="AIN2" s="29" t="s">
         <v>971</v>
       </c>
-      <c r="AIO2" s="28" t="s">
+      <c r="AIO2" s="30" t="s">
+        <v>1149</v>
+      </c>
+      <c r="AIP2" s="28" t="s">
         <v>972</v>
       </c>
-      <c r="AIP2" s="28" t="s">
+      <c r="AIQ2" s="28" t="s">
         <v>973</v>
       </c>
-      <c r="AIQ2" s="28" t="s">
+      <c r="AIR2" s="28" t="s">
         <v>974</v>
       </c>
-      <c r="AIR2" s="28" t="s">
+      <c r="AIS2" s="28" t="s">
         <v>975</v>
       </c>
-      <c r="AIS2" s="28" t="s">
+      <c r="AIT2" s="28" t="s">
         <v>976</v>
       </c>
-      <c r="AIT2" s="30"/>
-      <c r="AIU2" s="36" t="s">
+      <c r="AIU2" s="30"/>
+      <c r="AIV2" s="36" t="s">
         <v>977</v>
       </c>
-      <c r="AIV2" s="28" t="s">
+      <c r="AIW2" s="28" t="s">
         <v>978</v>
       </c>
-      <c r="AIW2" s="28" t="s">
+      <c r="AIX2" s="28" t="s">
         <v>979</v>
       </c>
-      <c r="AIX2" s="28"/>
-      <c r="AIY2" s="36" t="s">
+      <c r="AIY2" s="28"/>
+      <c r="AIZ2" s="36" t="s">
         <v>980</v>
       </c>
-      <c r="AIZ2" s="28" t="s">
+      <c r="AJA2" s="28" t="s">
         <v>981</v>
       </c>
-      <c r="AJA2" s="28" t="s">
+      <c r="AJB2" s="28" t="s">
         <v>982</v>
       </c>
-      <c r="AJB2" s="44"/>
-      <c r="AJC2" s="36" t="s">
+      <c r="AJC2" s="44"/>
+      <c r="AJD2" s="36" t="s">
         <v>983</v>
       </c>
-      <c r="AJD2" s="28" t="s">
+      <c r="AJE2" s="28" t="s">
         <v>984</v>
       </c>
-      <c r="AJE2" s="28" t="s">
+      <c r="AJF2" s="28" t="s">
         <v>985</v>
       </c>
-      <c r="AJF2" s="44"/>
-      <c r="AJG2" s="33" t="s">
+      <c r="AJG2" s="44"/>
+      <c r="AJH2" s="33" t="s">
         <v>986</v>
       </c>
-      <c r="AJH2" s="33" t="s">
+      <c r="AJI2" s="33" t="s">
         <v>987</v>
       </c>
-      <c r="AJI2" s="33" t="s">
+      <c r="AJJ2" s="33" t="s">
         <v>988</v>
       </c>
-      <c r="AJJ2" s="33" t="s">
+      <c r="AJK2" s="33" t="s">
         <v>989</v>
       </c>
-      <c r="AJK2" s="33" t="s">
+      <c r="AJL2" s="33" t="s">
         <v>990</v>
       </c>
-      <c r="AJL2" s="33" t="s">
+      <c r="AJM2" s="33" t="s">
         <v>991</v>
       </c>
-      <c r="AJM2" s="33" t="s">
+      <c r="AJN2" s="33" t="s">
         <v>992</v>
       </c>
-      <c r="AJN2" s="33" t="s">
+      <c r="AJO2" s="33" t="s">
         <v>993</v>
       </c>
-      <c r="AJO2" s="33" t="s">
+      <c r="AJP2" s="33" t="s">
         <v>994</v>
       </c>
-      <c r="AJP2" s="32" t="s">
+      <c r="AJQ2" s="32" t="s">
         <v>995</v>
       </c>
-      <c r="AJQ2" s="30" t="s">
+      <c r="AJR2" s="30" t="s">
         <v>996</v>
       </c>
-      <c r="AJR2" s="30" t="s">
+      <c r="AJS2" s="30" t="s">
         <v>997</v>
       </c>
-      <c r="AJS2" s="30" t="s">
+      <c r="AJT2" s="30" t="s">
         <v>998</v>
       </c>
-      <c r="AJT2" s="31" t="s">
+      <c r="AJU2" s="31" t="s">
         <v>999</v>
       </c>
-      <c r="AJU2" s="32" t="s">
+      <c r="AJV2" s="32" t="s">
         <v>1000</v>
       </c>
-      <c r="AJV2" s="30" t="s">
+      <c r="AJW2" s="30" t="s">
         <v>1001</v>
       </c>
-      <c r="AJW2" s="30" t="s">
+      <c r="AJX2" s="30" t="s">
         <v>1002</v>
       </c>
-      <c r="AJX2" s="30" t="s">
+      <c r="AJY2" s="30" t="s">
         <v>1003</v>
       </c>
-      <c r="AJY2" s="31" t="s">
+      <c r="AJZ2" s="31" t="s">
         <v>1004</v>
       </c>
-      <c r="AJZ2" s="30"/>
-      <c r="AKA2" s="29" t="s">
+      <c r="AKA2" s="30"/>
+      <c r="AKB2" s="29" t="s">
         <v>1005</v>
       </c>
-      <c r="AKB2" s="30" t="s">
+      <c r="AKC2" s="30" t="s">
         <v>1006</v>
       </c>
-      <c r="AKC2" s="30" t="s">
+      <c r="AKD2" s="30" t="s">
         <v>1007</v>
       </c>
-      <c r="AKD2" s="30" t="s">
+      <c r="AKE2" s="30" t="s">
         <v>1008</v>
       </c>
-      <c r="AKE2" s="30" t="s">
+      <c r="AKF2" s="30" t="s">
         <v>1009</v>
       </c>
-      <c r="AKF2" s="30" t="s">
+      <c r="AKG2" s="30" t="s">
         <v>1010</v>
       </c>
-      <c r="AKG2" s="30" t="s">
+      <c r="AKH2" s="30" t="s">
         <v>1011</v>
       </c>
-      <c r="AKH2" s="30" t="s">
+      <c r="AKI2" s="30" t="s">
         <v>1012</v>
       </c>
-      <c r="AKI2" s="30" t="s">
+      <c r="AKJ2" s="30" t="s">
         <v>1013</v>
       </c>
-      <c r="AKJ2" s="30" t="s">
+      <c r="AKK2" s="30" t="s">
         <v>1014</v>
       </c>
-      <c r="AKK2" s="30" t="s">
+      <c r="AKL2" s="30" t="s">
         <v>1015</v>
       </c>
-      <c r="AKL2" s="30" t="s">
+      <c r="AKM2" s="30" t="s">
         <v>1016</v>
       </c>
-      <c r="AKM2" s="30" t="s">
+      <c r="AKN2" s="30" t="s">
         <v>1017</v>
       </c>
-      <c r="AKN2" s="30" t="s">
+      <c r="AKO2" s="30" t="s">
         <v>1018</v>
       </c>
-      <c r="AKO2" s="28" t="s">
+      <c r="AKP2" s="28" t="s">
         <v>1019</v>
       </c>
-      <c r="AKP2" s="28" t="s">
+      <c r="AKQ2" s="28" t="s">
         <v>1020</v>
       </c>
-      <c r="AKQ2" s="29" t="s">
+      <c r="AKR2" s="29" t="s">
         <v>1021</v>
       </c>
-      <c r="AKR2" s="28" t="s">
+      <c r="AKS2" s="30" t="s">
+        <v>1151</v>
+      </c>
+      <c r="AKT2" s="28" t="s">
         <v>1022</v>
       </c>
-      <c r="AKS2" s="28" t="s">
+      <c r="AKU2" s="28" t="s">
         <v>1023</v>
       </c>
-      <c r="AKT2" s="28" t="s">
+      <c r="AKV2" s="28" t="s">
         <v>1024</v>
       </c>
-      <c r="AKU2" s="28" t="s">
+      <c r="AKW2" s="28" t="s">
         <v>1025</v>
       </c>
-      <c r="AKV2" s="28" t="s">
+      <c r="AKX2" s="28" t="s">
         <v>1026</v>
       </c>
-      <c r="AKW2" s="30"/>
-      <c r="AKX2" s="36" t="s">
+      <c r="AKY2" s="30"/>
+      <c r="AKZ2" s="36" t="s">
         <v>1027</v>
       </c>
-      <c r="AKY2" s="28" t="s">
+      <c r="ALA2" s="28" t="s">
         <v>1028</v>
       </c>
-      <c r="AKZ2" s="28" t="s">
+      <c r="ALB2" s="28" t="s">
         <v>1029</v>
       </c>
-      <c r="ALA2" s="28"/>
-      <c r="ALB2" s="36" t="s">
+      <c r="ALC2" s="28"/>
+      <c r="ALD2" s="36" t="s">
         <v>1030</v>
       </c>
-      <c r="ALC2" s="28" t="s">
+      <c r="ALE2" s="28" t="s">
         <v>1031</v>
       </c>
-      <c r="ALD2" s="28" t="s">
+      <c r="ALF2" s="28" t="s">
         <v>1032</v>
       </c>
-      <c r="ALE2" s="44"/>
-      <c r="ALF2" s="36" t="s">
+      <c r="ALG2" s="44"/>
+      <c r="ALH2" s="36" t="s">
         <v>1033</v>
       </c>
-      <c r="ALG2" s="28" t="s">
+      <c r="ALI2" s="28" t="s">
         <v>1034</v>
       </c>
-      <c r="ALH2" s="28" t="s">
+      <c r="ALJ2" s="28" t="s">
         <v>1035</v>
       </c>
-      <c r="ALI2" s="44"/>
-      <c r="ALJ2" s="45"/>
-      <c r="ALK2" s="33" t="s">
+      <c r="ALK2" s="44"/>
+      <c r="ALL2" s="45"/>
+      <c r="ALM2" s="33" t="s">
         <v>1036</v>
       </c>
-      <c r="ALL2" s="33" t="s">
+      <c r="ALN2" s="33" t="s">
         <v>1037</v>
       </c>
-      <c r="ALM2" s="33" t="s">
+      <c r="ALO2" s="33" t="s">
         <v>1038</v>
       </c>
-      <c r="ALN2" s="33" t="s">
+      <c r="ALP2" s="33" t="s">
         <v>1039</v>
       </c>
-      <c r="ALO2" s="33" t="s">
+      <c r="ALQ2" s="33" t="s">
         <v>1040</v>
       </c>
-      <c r="ALP2" s="33" t="s">
+      <c r="ALR2" s="33" t="s">
         <v>1041</v>
       </c>
-      <c r="ALQ2" s="33" t="s">
+      <c r="ALS2" s="33" t="s">
         <v>1042</v>
       </c>
-      <c r="ALR2" s="33" t="s">
+      <c r="ALT2" s="33" t="s">
         <v>1043</v>
       </c>
-      <c r="ALS2" s="33" t="s">
+      <c r="ALU2" s="33" t="s">
         <v>1044</v>
       </c>
-      <c r="ALT2" s="32" t="s">
+      <c r="ALV2" s="32" t="s">
         <v>1045</v>
       </c>
-      <c r="ALU2" s="30" t="s">
+      <c r="ALW2" s="30" t="s">
         <v>1046</v>
       </c>
-      <c r="ALV2" s="30" t="s">
+      <c r="ALX2" s="30" t="s">
         <v>1047</v>
       </c>
-      <c r="ALW2" s="30" t="s">
+      <c r="ALY2" s="30" t="s">
         <v>1048</v>
       </c>
-      <c r="ALX2" s="31" t="s">
+      <c r="ALZ2" s="31" t="s">
         <v>1049</v>
       </c>
-      <c r="ALY2" s="32" t="s">
+      <c r="AMA2" s="32" t="s">
         <v>1050</v>
       </c>
-      <c r="ALZ2" s="30" t="s">
+      <c r="AMB2" s="30" t="s">
         <v>1051</v>
       </c>
-      <c r="AMA2" s="30" t="s">
+      <c r="AMC2" s="30" t="s">
         <v>1052</v>
       </c>
-      <c r="AMB2" s="30" t="s">
+      <c r="AMD2" s="30" t="s">
         <v>1053</v>
       </c>
-      <c r="AMC2" s="31" t="s">
+      <c r="AME2" s="31" t="s">
         <v>1054</v>
       </c>
-      <c r="AMD2" s="30"/>
-      <c r="AME2" s="29" t="s">
+      <c r="AMF2" s="30" t="s">
+        <v>1153</v>
+      </c>
+      <c r="AMG2" s="29" t="s">
         <v>1055</v>
       </c>
-      <c r="AMF2" s="30" t="s">
+      <c r="AMH2" s="30" t="s">
         <v>1056</v>
       </c>
-      <c r="AMG2" s="30" t="s">
+      <c r="AMI2" s="30" t="s">
         <v>1057</v>
       </c>
-      <c r="AMH2" s="30" t="s">
+      <c r="AMJ2" s="30" t="s">
         <v>1058</v>
       </c>
-      <c r="AMI2" s="30" t="s">
+      <c r="AMK2" s="30" t="s">
         <v>1059</v>
       </c>
-      <c r="AMJ2" s="30" t="s">
+      <c r="AML2" s="30" t="s">
         <v>1060</v>
       </c>
-      <c r="AMK2" s="30" t="s">
+      <c r="AMM2" s="30" t="s">
         <v>1061</v>
       </c>
-      <c r="AML2" s="30" t="s">
+      <c r="AMN2" s="30" t="s">
         <v>1062</v>
       </c>
-      <c r="AMM2" s="30" t="s">
+      <c r="AMO2" s="30" t="s">
         <v>1063</v>
       </c>
-      <c r="AMN2" s="30" t="s">
+      <c r="AMP2" s="30" t="s">
         <v>1064</v>
       </c>
-      <c r="AMO2" s="30" t="s">
+      <c r="AMQ2" s="30" t="s">
         <v>1065</v>
       </c>
-      <c r="AMP2" s="30" t="s">
+      <c r="AMR2" s="30" t="s">
         <v>1066</v>
       </c>
-      <c r="AMQ2" s="30" t="s">
+      <c r="AMS2" s="30" t="s">
         <v>1067</v>
       </c>
-      <c r="AMR2" s="30" t="s">
+      <c r="AMT2" s="30" t="s">
         <v>1068</v>
       </c>
-      <c r="AMS2" s="28" t="s">
+      <c r="AMU2" s="28" t="s">
         <v>1069</v>
       </c>
-      <c r="AMT2" s="28" t="s">
+      <c r="AMV2" s="28" t="s">
         <v>1070</v>
       </c>
-      <c r="AMU2" s="29" t="s">
+      <c r="AMW2" s="29" t="s">
         <v>1071</v>
       </c>
-      <c r="AMV2" s="28" t="s">
+      <c r="AMX2" s="28" t="s">
         <v>1072</v>
       </c>
-      <c r="AMW2" s="28" t="s">
+      <c r="AMY2" s="28" t="s">
         <v>1073</v>
       </c>
-      <c r="AMX2" s="28" t="s">
+      <c r="AMZ2" s="28" t="s">
         <v>1074</v>
       </c>
-      <c r="AMY2" s="28" t="s">
+      <c r="ANA2" s="28" t="s">
         <v>1075</v>
       </c>
-      <c r="AMZ2" s="28" t="s">
+      <c r="ANB2" s="28" t="s">
         <v>1076</v>
       </c>
-      <c r="ANA2" s="30"/>
-      <c r="ANB2" s="36" t="s">
+      <c r="ANC2" s="30"/>
+      <c r="AND2" s="36" t="s">
         <v>1077</v>
       </c>
-      <c r="ANC2" s="28" t="s">
+      <c r="ANE2" s="28" t="s">
         <v>1078</v>
       </c>
-      <c r="AND2" s="28" t="s">
+      <c r="ANF2" s="28" t="s">
         <v>1079</v>
       </c>
-      <c r="ANE2" s="28"/>
-      <c r="ANF2" s="36" t="s">
+      <c r="ANG2" s="28"/>
+      <c r="ANH2" s="36" t="s">
         <v>1080</v>
       </c>
-      <c r="ANG2" s="28" t="s">
+      <c r="ANI2" s="28" t="s">
         <v>1081</v>
       </c>
-      <c r="ANH2" s="28" t="s">
+      <c r="ANJ2" s="28" t="s">
         <v>1082</v>
       </c>
-      <c r="ANI2" s="44"/>
-      <c r="ANJ2" s="36" t="s">
+      <c r="ANK2" s="44"/>
+      <c r="ANL2" s="36" t="s">
         <v>1083</v>
       </c>
-      <c r="ANK2" s="28" t="s">
+      <c r="ANM2" s="28" t="s">
         <v>1084</v>
       </c>
-      <c r="ANL2" s="28" t="s">
+      <c r="ANN2" s="28" t="s">
         <v>1085</v>
       </c>
-      <c r="ANM2" s="44"/>
-      <c r="ANO2" s="33" t="s">
+      <c r="ANO2" s="44"/>
+      <c r="ANQ2" s="33" t="s">
         <v>1086</v>
       </c>
-      <c r="ANP2" s="33" t="s">
+      <c r="ANR2" s="33" t="s">
         <v>1087</v>
       </c>
-      <c r="ANQ2" s="33" t="s">
+      <c r="ANS2" s="33" t="s">
         <v>1088</v>
       </c>
-      <c r="ANR2" s="33" t="s">
+      <c r="ANT2" s="33" t="s">
         <v>1089</v>
       </c>
-      <c r="ANS2" s="33" t="s">
+      <c r="ANU2" s="33" t="s">
         <v>1090</v>
       </c>
-      <c r="ANT2" s="33" t="s">
+      <c r="ANV2" s="33" t="s">
         <v>1091</v>
       </c>
-      <c r="ANU2" s="33" t="s">
+      <c r="ANW2" s="33" t="s">
         <v>1092</v>
       </c>
-      <c r="ANW2" s="33" t="s">
+      <c r="ANY2" s="33" t="s">
         <v>1139</v>
       </c>
-      <c r="ANX2" s="33" t="s">
+      <c r="ANZ2" s="33" t="s">
         <v>1140</v>
       </c>
-      <c r="ANY2" s="46" t="s">
+      <c r="AOA2" s="46" t="s">
         <v>1093</v>
       </c>
-      <c r="ANZ2" s="43" t="s">
+      <c r="AOB2" s="43" t="s">
         <v>1094</v>
       </c>
-      <c r="AOA2" s="43" t="s">
+      <c r="AOC2" s="43" t="s">
         <v>1120</v>
       </c>
-      <c r="AOB2" s="43" t="s">
+      <c r="AOD2" s="43" t="s">
         <v>1095</v>
       </c>
-      <c r="AOC2" s="33" t="s">
+      <c r="AOE2" s="33" t="s">
         <v>1096</v>
       </c>
-      <c r="AOD2" s="33" t="s">
+      <c r="AOF2" s="33" t="s">
         <v>1097</v>
       </c>
-      <c r="AOE2" s="33" t="s">
+      <c r="AOG2" s="33" t="s">
         <v>1121</v>
       </c>
-      <c r="AOF2" s="33" t="s">
+      <c r="AOH2" s="33" t="s">
         <v>1098</v>
       </c>
-      <c r="AOG2" s="33" t="s">
+      <c r="AOI2" s="33" t="s">
         <v>1099</v>
       </c>
-      <c r="AOH2" s="33" t="s">
+      <c r="AOJ2" s="33" t="s">
         <v>1100</v>
       </c>
-      <c r="AOI2" s="33" t="s">
+      <c r="AOK2" s="33" t="s">
         <v>1101</v>
       </c>
-      <c r="AOJ2" s="47" t="s">
+      <c r="AOL2" s="47" t="s">
         <v>1102</v>
       </c>
-      <c r="AOK2" s="33" t="s">
+      <c r="AOM2" s="33" t="s">
         <v>1122</v>
       </c>
-      <c r="AOL2" s="33" t="s">
+      <c r="AON2" s="33" t="s">
         <v>1103</v>
       </c>
-      <c r="AOM2" s="33" t="s">
+      <c r="AOO2" s="33" t="s">
         <v>1104</v>
       </c>
-      <c r="AON2" s="33" t="s">
+      <c r="AOP2" s="33" t="s">
         <v>1105</v>
       </c>
-      <c r="AOO2" s="33" t="s">
+      <c r="AOQ2" s="33" t="s">
         <v>1123</v>
       </c>
-      <c r="AOP2" s="33" t="s">
+      <c r="AOR2" s="33" t="s">
         <v>1106</v>
       </c>
-      <c r="AOQ2" s="33" t="s">
+      <c r="AOS2" s="33" t="s">
         <v>1107</v>
       </c>
-      <c r="AOR2" s="33" t="s">
+      <c r="AOT2" s="33" t="s">
         <v>1108</v>
       </c>
-      <c r="AOS2" s="33" t="s">
+      <c r="AOU2" s="33" t="s">
         <v>1109</v>
       </c>
-      <c r="AOT2" s="47" t="s">
+      <c r="AOV2" s="47" t="s">
         <v>1110</v>
       </c>
-      <c r="AOU2" s="33" t="s">
+      <c r="AOW2" s="33" t="s">
         <v>1111</v>
       </c>
-      <c r="AOV2" s="33" t="s">
+      <c r="AOX2" s="33" t="s">
         <v>1112</v>
       </c>
-      <c r="AOW2" s="33" t="s">
+      <c r="AOY2" s="33" t="s">
         <v>1113</v>
       </c>
-      <c r="AOX2" s="47" t="s">
+      <c r="AOZ2" s="47" t="s">
         <v>1114</v>
       </c>
-      <c r="AOY2" s="33" t="s">
+      <c r="APA2" s="33" t="s">
         <v>1115</v>
       </c>
-      <c r="AOZ2" s="33" t="s">
+      <c r="APB2" s="33" t="s">
         <v>1116</v>
       </c>
-      <c r="APA2" s="33" t="s">
+      <c r="APC2" s="33" t="s">
         <v>1117</v>
       </c>
-      <c r="APB2" s="47" t="s">
+      <c r="APD2" s="47" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="3" spans="1:1094" s="53" customFormat="1" ht="64" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:1096" s="53" customFormat="1" ht="96" x14ac:dyDescent="0.2">
       <c r="A3" s="48" t="s">
         <v>1141</v>
       </c>
@@ -8861,10 +8926,10 @@
         <v>94</v>
       </c>
       <c r="H3" s="50" t="s">
-        <v>95</v>
+        <v>1143</v>
       </c>
       <c r="I3" s="50" t="s">
-        <v>96</v>
+        <v>1144</v>
       </c>
       <c r="J3" s="50" t="s">
         <v>97</v>
@@ -9560,7 +9625,7 @@
         <v>321</v>
       </c>
       <c r="IS3" s="50" t="s">
-        <v>322</v>
+        <v>1145</v>
       </c>
       <c r="IT3" s="50" t="s">
         <v>323</v>
@@ -9731,7 +9796,7 @@
         <v>378</v>
       </c>
       <c r="KX3" s="50" t="s">
-        <v>379</v>
+        <v>1146</v>
       </c>
       <c r="KY3" s="50" t="s">
         <v>380</v>
@@ -10205,10 +10270,10 @@
       </c>
       <c r="RE3" s="60"/>
       <c r="RF3" s="56" t="s">
-        <v>534</v>
+        <v>1148</v>
       </c>
       <c r="RG3" s="50" t="s">
-        <v>535</v>
+        <v>1147</v>
       </c>
       <c r="RH3" s="53" t="s">
         <v>536</v>
@@ -10223,7 +10288,7 @@
         <v>1125</v>
       </c>
       <c r="RL3" s="48" t="s">
-        <v>540</v>
+        <v>1148</v>
       </c>
       <c r="RM3" s="48" t="s">
         <v>541</v>
@@ -10279,8 +10344,8 @@
       <c r="SD3" s="48" t="s">
         <v>558</v>
       </c>
-      <c r="SE3" s="48" t="s">
-        <v>559</v>
+      <c r="SE3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="SF3" s="48" t="s">
         <v>560</v>
@@ -10294,8 +10359,8 @@
       <c r="SI3" s="48" t="s">
         <v>563</v>
       </c>
-      <c r="SJ3" s="48" t="s">
-        <v>564</v>
+      <c r="SJ3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="SK3" s="48" t="s">
         <v>565</v>
@@ -10309,8 +10374,8 @@
       <c r="SN3" s="48" t="s">
         <v>568</v>
       </c>
-      <c r="SO3" s="48" t="s">
-        <v>569</v>
+      <c r="SO3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="SP3" s="48" t="s">
         <v>570</v>
@@ -10325,7 +10390,7 @@
         <v>573</v>
       </c>
       <c r="ST3" s="48" t="s">
-        <v>574</v>
+        <v>1148</v>
       </c>
       <c r="SU3" s="48" t="s">
         <v>575</v>
@@ -10334,10 +10399,10 @@
         <v>576</v>
       </c>
       <c r="SW3" s="56" t="s">
-        <v>577</v>
+        <v>1148</v>
       </c>
       <c r="SX3" s="50" t="s">
-        <v>578</v>
+        <v>1147</v>
       </c>
       <c r="SY3" s="62" t="s">
         <v>579</v>
@@ -10351,8 +10416,8 @@
       <c r="TB3" s="48" t="s">
         <v>1125</v>
       </c>
-      <c r="TC3" s="48" t="s">
-        <v>583</v>
+      <c r="TC3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="TD3" s="48" t="s">
         <v>584</v>
@@ -10384,8 +10449,8 @@
       <c r="TM3" s="48" t="s">
         <v>593</v>
       </c>
-      <c r="TN3" s="48" t="s">
-        <v>594</v>
+      <c r="TN3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="TO3" s="48" t="s">
         <v>595</v>
@@ -10408,8 +10473,8 @@
       <c r="TU3" s="48" t="s">
         <v>601</v>
       </c>
-      <c r="TV3" s="48" t="s">
-        <v>602</v>
+      <c r="TV3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="TW3" s="48" t="s">
         <v>603</v>
@@ -10424,7 +10489,7 @@
         <v>606</v>
       </c>
       <c r="UA3" s="48" t="s">
-        <v>607</v>
+        <v>1148</v>
       </c>
       <c r="UB3" s="48" t="s">
         <v>608</v>
@@ -10438,8 +10503,8 @@
       <c r="UE3" s="48" t="s">
         <v>611</v>
       </c>
-      <c r="UF3" s="48" t="s">
-        <v>612</v>
+      <c r="UF3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="UG3" s="48" t="s">
         <v>613</v>
@@ -10453,8 +10518,8 @@
       <c r="UJ3" s="48" t="s">
         <v>616</v>
       </c>
-      <c r="UK3" s="48" t="s">
-        <v>617</v>
+      <c r="UK3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="UL3" s="48" t="s">
         <v>618</v>
@@ -10463,8 +10528,8 @@
         <v>619</v>
       </c>
       <c r="UN3" s="48"/>
-      <c r="UO3" s="56" t="s">
-        <v>620</v>
+      <c r="UO3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="UP3" s="50" t="s">
         <v>621</v>
@@ -10481,8 +10546,8 @@
       <c r="UT3" s="48" t="s">
         <v>1125</v>
       </c>
-      <c r="UU3" s="48" t="s">
-        <v>626</v>
+      <c r="UU3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="UV3" s="48" t="s">
         <v>627</v>
@@ -10514,8 +10579,8 @@
       <c r="VE3" s="48" t="s">
         <v>636</v>
       </c>
-      <c r="VF3" s="48" t="s">
-        <v>637</v>
+      <c r="VF3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="VG3" s="48" t="s">
         <v>638</v>
@@ -10538,8 +10603,8 @@
       <c r="VM3" s="48" t="s">
         <v>644</v>
       </c>
-      <c r="VN3" s="48" t="s">
-        <v>645</v>
+      <c r="VN3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="VO3" s="48" t="s">
         <v>646</v>
@@ -10553,8 +10618,8 @@
       <c r="VR3" s="48" t="s">
         <v>649</v>
       </c>
-      <c r="VS3" s="48" t="s">
-        <v>650</v>
+      <c r="VS3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="VT3" s="48" t="s">
         <v>651</v>
@@ -10568,8 +10633,8 @@
       <c r="VW3" s="48" t="s">
         <v>654</v>
       </c>
-      <c r="VX3" s="48" t="s">
-        <v>655</v>
+      <c r="VX3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="VY3" s="48" t="s">
         <v>656</v>
@@ -10593,8 +10658,8 @@
         <v>662</v>
       </c>
       <c r="WF3" s="48"/>
-      <c r="WG3" s="56" t="s">
-        <v>663</v>
+      <c r="WG3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="WH3" s="50" t="s">
         <v>664</v>
@@ -10611,8 +10676,8 @@
       <c r="WL3" s="48" t="s">
         <v>1125</v>
       </c>
-      <c r="WM3" s="48" t="s">
-        <v>669</v>
+      <c r="WM3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="WN3" s="48" t="s">
         <v>670</v>
@@ -10644,8 +10709,8 @@
       <c r="WW3" s="48" t="s">
         <v>679</v>
       </c>
-      <c r="WX3" s="48" t="s">
-        <v>680</v>
+      <c r="WX3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="WY3" s="48" t="s">
         <v>681</v>
@@ -10668,8 +10733,8 @@
       <c r="XE3" s="48" t="s">
         <v>687</v>
       </c>
-      <c r="XF3" s="48" t="s">
-        <v>688</v>
+      <c r="XF3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="XG3" s="48" t="s">
         <v>689</v>
@@ -10683,8 +10748,8 @@
       <c r="XJ3" s="48" t="s">
         <v>692</v>
       </c>
-      <c r="XK3" s="48" t="s">
-        <v>693</v>
+      <c r="XK3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="XL3" s="48" t="s">
         <v>694</v>
@@ -10698,8 +10763,8 @@
       <c r="XO3" s="48" t="s">
         <v>697</v>
       </c>
-      <c r="XP3" s="48" t="s">
-        <v>698</v>
+      <c r="XP3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="XQ3" s="48" t="s">
         <v>699</v>
@@ -10713,8 +10778,8 @@
       <c r="XT3" s="48" t="s">
         <v>702</v>
       </c>
-      <c r="XU3" s="48" t="s">
-        <v>703</v>
+      <c r="XU3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="XV3" s="48" t="s">
         <v>704</v>
@@ -10723,8 +10788,8 @@
         <v>705</v>
       </c>
       <c r="XX3" s="48"/>
-      <c r="XY3" s="56" t="s">
-        <v>706</v>
+      <c r="XY3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="XZ3" s="50" t="s">
         <v>707</v>
@@ -10741,8 +10806,8 @@
       <c r="YD3" s="48" t="s">
         <v>1125</v>
       </c>
-      <c r="YE3" s="48" t="s">
-        <v>712</v>
+      <c r="YE3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="YF3" s="48" t="s">
         <v>713</v>
@@ -10774,8 +10839,8 @@
       <c r="YO3" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="YP3" s="48" t="s">
-        <v>723</v>
+      <c r="YP3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="YQ3" s="48" t="s">
         <v>724</v>
@@ -10798,8 +10863,8 @@
       <c r="YW3" s="48" t="s">
         <v>730</v>
       </c>
-      <c r="YX3" s="48" t="s">
-        <v>731</v>
+      <c r="YX3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="YY3" s="48" t="s">
         <v>732</v>
@@ -10813,8 +10878,8 @@
       <c r="ZB3" s="48" t="s">
         <v>735</v>
       </c>
-      <c r="ZC3" s="48" t="s">
-        <v>736</v>
+      <c r="ZC3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="ZD3" s="48" t="s">
         <v>737</v>
@@ -10828,8 +10893,8 @@
       <c r="ZG3" s="48" t="s">
         <v>740</v>
       </c>
-      <c r="ZH3" s="48" t="s">
-        <v>741</v>
+      <c r="ZH3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="ZI3" s="48" t="s">
         <v>742</v>
@@ -10844,7 +10909,7 @@
         <v>745</v>
       </c>
       <c r="ZM3" s="48" t="s">
-        <v>746</v>
+        <v>1148</v>
       </c>
       <c r="ZN3" s="48" t="s">
         <v>747</v>
@@ -10853,8 +10918,8 @@
         <v>748</v>
       </c>
       <c r="ZP3" s="48"/>
-      <c r="ZQ3" s="56" t="s">
-        <v>749</v>
+      <c r="ZQ3" s="69" t="s">
+        <v>1148</v>
       </c>
       <c r="ZR3" s="50" t="s">
         <v>750</v>
@@ -10881,7 +10946,7 @@
         <v>757</v>
       </c>
       <c r="ZZ3" s="48" t="s">
-        <v>758</v>
+        <v>1148</v>
       </c>
       <c r="AAA3" s="48" t="s">
         <v>759</v>
@@ -10896,7 +10961,7 @@
         <v>762</v>
       </c>
       <c r="AAE3" s="48" t="s">
-        <v>763</v>
+        <v>1148</v>
       </c>
       <c r="AAF3" s="48" t="s">
         <v>764</v>
@@ -10911,7 +10976,7 @@
         <v>767</v>
       </c>
       <c r="AAJ3" s="48" t="s">
-        <v>768</v>
+        <v>1148</v>
       </c>
       <c r="AAK3" s="48" t="s">
         <v>769</v>
@@ -10926,7 +10991,7 @@
         <v>772</v>
       </c>
       <c r="AAO3" s="48" t="s">
-        <v>773</v>
+        <v>1148</v>
       </c>
       <c r="AAP3" s="48" t="s">
         <v>774</v>
@@ -10941,7 +11006,7 @@
         <v>777</v>
       </c>
       <c r="AAT3" s="48" t="s">
-        <v>778</v>
+        <v>1148</v>
       </c>
       <c r="AAU3" s="48" t="s">
         <v>779</v>
@@ -10950,7 +11015,7 @@
         <v>780</v>
       </c>
       <c r="AAW3" s="56" t="s">
-        <v>781</v>
+        <v>1148</v>
       </c>
       <c r="AAX3" s="56" t="s">
         <v>782</v>
@@ -10977,7 +11042,7 @@
         <v>789</v>
       </c>
       <c r="ABF3" s="48" t="s">
-        <v>790</v>
+        <v>1148</v>
       </c>
       <c r="ABG3" s="48" t="s">
         <v>791</v>
@@ -10992,7 +11057,7 @@
         <v>794</v>
       </c>
       <c r="ABK3" s="48" t="s">
-        <v>795</v>
+        <v>1148</v>
       </c>
       <c r="ABL3" s="48" t="s">
         <v>796</v>
@@ -11007,7 +11072,7 @@
         <v>799</v>
       </c>
       <c r="ABP3" s="48" t="s">
-        <v>800</v>
+        <v>1148</v>
       </c>
       <c r="ABQ3" s="48" t="s">
         <v>801</v>
@@ -11022,7 +11087,7 @@
         <v>804</v>
       </c>
       <c r="ABU3" s="48" t="s">
-        <v>805</v>
+        <v>1148</v>
       </c>
       <c r="ABV3" s="48" t="s">
         <v>806</v>
@@ -11037,7 +11102,7 @@
         <v>809</v>
       </c>
       <c r="ABZ3" s="48" t="s">
-        <v>810</v>
+        <v>1148</v>
       </c>
       <c r="ACA3" s="48" t="s">
         <v>811</v>
@@ -11047,7 +11112,7 @@
       </c>
       <c r="ACC3" s="48"/>
       <c r="ACD3" s="56" t="s">
-        <v>813</v>
+        <v>1148</v>
       </c>
       <c r="ACE3" s="56" t="s">
         <v>814</v>
@@ -11074,7 +11139,7 @@
         <v>821</v>
       </c>
       <c r="ACM3" s="48" t="s">
-        <v>822</v>
+        <v>1148</v>
       </c>
       <c r="ACN3" s="48" t="s">
         <v>823</v>
@@ -11089,7 +11154,7 @@
         <v>826</v>
       </c>
       <c r="ACR3" s="48" t="s">
-        <v>827</v>
+        <v>1148</v>
       </c>
       <c r="ACS3" s="48" t="s">
         <v>828</v>
@@ -11104,7 +11169,7 @@
         <v>831</v>
       </c>
       <c r="ACW3" s="48" t="s">
-        <v>832</v>
+        <v>1148</v>
       </c>
       <c r="ACX3" s="48" t="s">
         <v>833</v>
@@ -11119,7 +11184,7 @@
         <v>836</v>
       </c>
       <c r="ADB3" s="48" t="s">
-        <v>837</v>
+        <v>1148</v>
       </c>
       <c r="ADC3" s="48" t="s">
         <v>838</v>
@@ -11134,7 +11199,7 @@
         <v>841</v>
       </c>
       <c r="ADG3" s="48" t="s">
-        <v>842</v>
+        <v>1148</v>
       </c>
       <c r="ADH3" s="48" t="s">
         <v>843</v>
@@ -11144,7 +11209,7 @@
       </c>
       <c r="ADJ3" s="48"/>
       <c r="ADK3" s="56" t="s">
-        <v>845</v>
+        <v>1148</v>
       </c>
       <c r="ADL3" s="56" t="s">
         <v>846</v>
@@ -11171,7 +11236,7 @@
         <v>853</v>
       </c>
       <c r="ADT3" s="48" t="s">
-        <v>854</v>
+        <v>1148</v>
       </c>
       <c r="ADU3" s="48" t="s">
         <v>855</v>
@@ -11186,7 +11251,7 @@
         <v>858</v>
       </c>
       <c r="ADY3" s="48" t="s">
-        <v>859</v>
+        <v>1148</v>
       </c>
       <c r="ADZ3" s="48" t="s">
         <v>860</v>
@@ -11201,7 +11266,7 @@
         <v>863</v>
       </c>
       <c r="AED3" s="48" t="s">
-        <v>864</v>
+        <v>1148</v>
       </c>
       <c r="AEE3" s="48" t="s">
         <v>865</v>
@@ -11216,7 +11281,7 @@
         <v>868</v>
       </c>
       <c r="AEI3" s="48" t="s">
-        <v>869</v>
+        <v>1148</v>
       </c>
       <c r="AEJ3" s="48" t="s">
         <v>870</v>
@@ -11231,7 +11296,7 @@
         <v>873</v>
       </c>
       <c r="AEN3" s="48" t="s">
-        <v>874</v>
+        <v>1148</v>
       </c>
       <c r="AEO3" s="48" t="s">
         <v>875</v>
@@ -11241,7 +11306,7 @@
       </c>
       <c r="AEQ3" s="48"/>
       <c r="AER3" s="56" t="s">
-        <v>877</v>
+        <v>1148</v>
       </c>
       <c r="AES3" s="56" t="s">
         <v>878</v>
@@ -11268,7 +11333,7 @@
         <v>885</v>
       </c>
       <c r="AFA3" s="48" t="s">
-        <v>886</v>
+        <v>1148</v>
       </c>
       <c r="AFB3" s="48" t="s">
         <v>887</v>
@@ -11283,7 +11348,7 @@
         <v>890</v>
       </c>
       <c r="AFF3" s="48" t="s">
-        <v>891</v>
+        <v>1148</v>
       </c>
       <c r="AFG3" s="48" t="s">
         <v>892</v>
@@ -11298,7 +11363,7 @@
         <v>895</v>
       </c>
       <c r="AFK3" s="48" t="s">
-        <v>896</v>
+        <v>1148</v>
       </c>
       <c r="AFL3" s="48" t="s">
         <v>897</v>
@@ -11313,7 +11378,7 @@
         <v>900</v>
       </c>
       <c r="AFP3" s="48" t="s">
-        <v>901</v>
+        <v>1148</v>
       </c>
       <c r="AFQ3" s="48" t="s">
         <v>902</v>
@@ -11328,7 +11393,7 @@
         <v>905</v>
       </c>
       <c r="AFU3" s="48" t="s">
-        <v>906</v>
+        <v>1148</v>
       </c>
       <c r="AFV3" s="48" t="s">
         <v>907</v>
@@ -11531,495 +11596,503 @@
       <c r="AIN3" s="49" t="s">
         <v>971</v>
       </c>
-      <c r="AIO3" s="48" t="s">
+      <c r="AIO3" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AIP3" s="48" t="s">
         <v>972</v>
       </c>
-      <c r="AIP3" s="48" t="s">
+      <c r="AIQ3" s="48" t="s">
         <v>973</v>
       </c>
-      <c r="AIQ3" s="48" t="s">
+      <c r="AIR3" s="48" t="s">
         <v>1132</v>
       </c>
-      <c r="AIR3" s="48" t="s">
+      <c r="AIS3" s="48" t="s">
         <v>975</v>
       </c>
-      <c r="AIS3" s="48" t="s">
+      <c r="AIT3" s="48" t="s">
         <v>976</v>
       </c>
-      <c r="AIT3" s="50"/>
-      <c r="AIU3" s="56" t="s">
+      <c r="AIU3" s="50"/>
+      <c r="AIV3" s="56" t="s">
         <v>977</v>
       </c>
-      <c r="AIV3" s="48" t="s">
+      <c r="AIW3" s="48" t="s">
         <v>978</v>
       </c>
-      <c r="AIW3" s="48" t="s">
+      <c r="AIX3" s="48" t="s">
         <v>979</v>
       </c>
-      <c r="AIX3" s="48"/>
-      <c r="AIY3" s="56" t="s">
+      <c r="AIY3" s="48"/>
+      <c r="AIZ3" s="56" t="s">
         <v>980</v>
       </c>
-      <c r="AIZ3" s="48" t="s">
+      <c r="AJA3" s="48" t="s">
         <v>981</v>
       </c>
-      <c r="AJA3" s="48" t="s">
+      <c r="AJB3" s="48" t="s">
         <v>982</v>
       </c>
-      <c r="AJB3" s="64"/>
-      <c r="AJC3" s="56" t="s">
+      <c r="AJC3" s="64"/>
+      <c r="AJD3" s="56" t="s">
         <v>983</v>
       </c>
-      <c r="AJD3" s="48" t="s">
+      <c r="AJE3" s="48" t="s">
         <v>984</v>
       </c>
-      <c r="AJE3" s="48" t="s">
+      <c r="AJF3" s="48" t="s">
         <v>985</v>
       </c>
-      <c r="AJF3" s="64"/>
-      <c r="AJG3" s="53" t="s">
+      <c r="AJG3" s="64"/>
+      <c r="AJH3" s="53" t="s">
         <v>1137</v>
       </c>
-      <c r="AJH3" s="53" t="s">
+      <c r="AJI3" s="53" t="s">
         <v>987</v>
       </c>
-      <c r="AJI3" s="53" t="s">
+      <c r="AJJ3" s="53" t="s">
         <v>988</v>
       </c>
-      <c r="AJJ3" s="53" t="s">
+      <c r="AJK3" s="53" t="s">
         <v>989</v>
       </c>
-      <c r="AJK3" s="53" t="s">
+      <c r="AJL3" s="53" t="s">
         <v>1125</v>
       </c>
-      <c r="AJL3" s="53" t="s">
+      <c r="AJM3" s="53" t="s">
         <v>991</v>
       </c>
-      <c r="AJM3" s="53" t="s">
+      <c r="AJN3" s="53" t="s">
         <v>992</v>
       </c>
-      <c r="AJN3" s="53" t="s">
+      <c r="AJO3" s="53" t="s">
         <v>993</v>
       </c>
-      <c r="AJO3" s="53" t="s">
+      <c r="AJP3" s="53" t="s">
         <v>994</v>
       </c>
-      <c r="AJP3" s="52" t="s">
+      <c r="AJQ3" s="52" t="s">
         <v>995</v>
       </c>
-      <c r="AJQ3" s="50" t="s">
+      <c r="AJR3" s="50" t="s">
         <v>996</v>
       </c>
-      <c r="AJR3" s="50" t="s">
+      <c r="AJS3" s="50" t="s">
         <v>997</v>
       </c>
-      <c r="AJS3" s="50" t="s">
+      <c r="AJT3" s="50" t="s">
         <v>998</v>
       </c>
-      <c r="AJT3" s="51" t="s">
+      <c r="AJU3" s="51" t="s">
         <v>999</v>
       </c>
-      <c r="AJU3" s="52" t="s">
+      <c r="AJV3" s="52" t="s">
         <v>1000</v>
       </c>
-      <c r="AJV3" s="50" t="s">
+      <c r="AJW3" s="50" t="s">
         <v>1001</v>
       </c>
-      <c r="AJW3" s="50" t="s">
+      <c r="AJX3" s="50" t="s">
         <v>1002</v>
       </c>
-      <c r="AJX3" s="50" t="s">
+      <c r="AJY3" s="50" t="s">
         <v>1003</v>
       </c>
-      <c r="AJY3" s="51" t="s">
+      <c r="AJZ3" s="51" t="s">
         <v>1004</v>
       </c>
-      <c r="AJZ3" s="50"/>
-      <c r="AKA3" s="49" t="s">
+      <c r="AKA3" s="50"/>
+      <c r="AKB3" s="49" t="s">
         <v>1005</v>
       </c>
-      <c r="AKB3" s="50" t="s">
+      <c r="AKC3" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="AKC3" s="50" t="s">
+      <c r="AKD3" s="50" t="s">
         <v>1129</v>
       </c>
-      <c r="AKD3" s="50" t="s">
+      <c r="AKE3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AKE3" s="50" t="s">
+      <c r="AKF3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AKF3" s="50" t="s">
+      <c r="AKG3" s="50" t="s">
         <v>1010</v>
       </c>
-      <c r="AKG3" s="50" t="s">
+      <c r="AKH3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AKH3" s="50" t="s">
+      <c r="AKI3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AKI3" s="50" t="s">
+      <c r="AKJ3" s="50" t="s">
         <v>1013</v>
       </c>
-      <c r="AKJ3" s="50" t="s">
+      <c r="AKK3" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="AKK3" s="50" t="s">
+      <c r="AKL3" s="50" t="s">
         <v>1129</v>
       </c>
-      <c r="AKL3" s="50" t="s">
+      <c r="AKM3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AKM3" s="50" t="s">
+      <c r="AKN3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AKN3" s="50" t="s">
+      <c r="AKO3" s="50" t="s">
         <v>1018</v>
       </c>
-      <c r="AKO3" s="48" t="s">
+      <c r="AKP3" s="48" t="s">
         <v>1130</v>
       </c>
-      <c r="AKP3" s="48" t="s">
+      <c r="AKQ3" s="48" t="s">
         <v>1131</v>
       </c>
-      <c r="AKQ3" s="49" t="s">
+      <c r="AKR3" s="49" t="s">
         <v>1021</v>
       </c>
-      <c r="AKR3" s="48" t="s">
+      <c r="AKS3" s="50" t="s">
+        <v>1150</v>
+      </c>
+      <c r="AKT3" s="48" t="s">
         <v>1022</v>
       </c>
-      <c r="AKS3" s="48" t="s">
+      <c r="AKU3" s="48" t="s">
         <v>1023</v>
       </c>
-      <c r="AKT3" s="48" t="s">
+      <c r="AKV3" s="48" t="s">
         <v>1132</v>
       </c>
-      <c r="AKU3" s="48" t="s">
+      <c r="AKW3" s="48" t="s">
         <v>1025</v>
       </c>
-      <c r="AKV3" s="48" t="s">
+      <c r="AKX3" s="48" t="s">
         <v>1026</v>
       </c>
-      <c r="AKW3" s="50"/>
-      <c r="AKX3" s="56" t="s">
+      <c r="AKY3" s="50"/>
+      <c r="AKZ3" s="56" t="s">
         <v>1027</v>
       </c>
-      <c r="AKY3" s="48" t="s">
+      <c r="ALA3" s="48" t="s">
         <v>1028</v>
       </c>
-      <c r="AKZ3" s="48" t="s">
+      <c r="ALB3" s="48" t="s">
         <v>1029</v>
       </c>
-      <c r="ALA3" s="48"/>
-      <c r="ALB3" s="56" t="s">
+      <c r="ALC3" s="48"/>
+      <c r="ALD3" s="56" t="s">
         <v>1030</v>
       </c>
-      <c r="ALC3" s="48" t="s">
+      <c r="ALE3" s="48" t="s">
         <v>1031</v>
       </c>
-      <c r="ALD3" s="48" t="s">
+      <c r="ALF3" s="48" t="s">
         <v>1032</v>
       </c>
-      <c r="ALE3" s="64"/>
-      <c r="ALF3" s="56" t="s">
+      <c r="ALG3" s="64"/>
+      <c r="ALH3" s="56" t="s">
         <v>1033</v>
       </c>
-      <c r="ALG3" s="48" t="s">
+      <c r="ALI3" s="48" t="s">
         <v>1034</v>
       </c>
-      <c r="ALH3" s="48" t="s">
+      <c r="ALJ3" s="48" t="s">
         <v>1035</v>
       </c>
-      <c r="ALI3" s="64"/>
-      <c r="ALJ3" s="65"/>
-      <c r="ALK3" s="53" t="s">
+      <c r="ALK3" s="64"/>
+      <c r="ALL3" s="65"/>
+      <c r="ALM3" s="53" t="s">
         <v>1137</v>
       </c>
-      <c r="ALL3" s="53" t="s">
+      <c r="ALN3" s="53" t="s">
         <v>1037</v>
       </c>
-      <c r="ALM3" s="53" t="s">
+      <c r="ALO3" s="53" t="s">
         <v>1038</v>
       </c>
-      <c r="ALN3" s="53" t="s">
+      <c r="ALP3" s="53" t="s">
         <v>1039</v>
       </c>
-      <c r="ALO3" s="53" t="s">
+      <c r="ALQ3" s="53" t="s">
         <v>1125</v>
       </c>
-      <c r="ALP3" s="53" t="s">
+      <c r="ALR3" s="53" t="s">
         <v>1041</v>
       </c>
-      <c r="ALQ3" s="53" t="s">
+      <c r="ALS3" s="53" t="s">
         <v>1042</v>
       </c>
-      <c r="ALR3" s="53" t="s">
+      <c r="ALT3" s="53" t="s">
         <v>1043</v>
       </c>
-      <c r="ALS3" s="53" t="s">
+      <c r="ALU3" s="53" t="s">
         <v>1044</v>
       </c>
-      <c r="ALT3" s="52" t="s">
+      <c r="ALV3" s="52" t="s">
         <v>1045</v>
       </c>
-      <c r="ALU3" s="50" t="s">
+      <c r="ALW3" s="50" t="s">
         <v>1046</v>
       </c>
-      <c r="ALV3" s="50" t="s">
+      <c r="ALX3" s="50" t="s">
         <v>1047</v>
       </c>
-      <c r="ALW3" s="50" t="s">
+      <c r="ALY3" s="50" t="s">
         <v>1048</v>
       </c>
-      <c r="ALX3" s="51" t="s">
+      <c r="ALZ3" s="51" t="s">
         <v>1049</v>
       </c>
-      <c r="ALY3" s="52" t="s">
+      <c r="AMA3" s="52" t="s">
         <v>1050</v>
       </c>
-      <c r="ALZ3" s="50" t="s">
+      <c r="AMB3" s="50" t="s">
         <v>1051</v>
       </c>
-      <c r="AMA3" s="50" t="s">
+      <c r="AMC3" s="50" t="s">
         <v>1052</v>
       </c>
-      <c r="AMB3" s="50" t="s">
+      <c r="AMD3" s="50" t="s">
         <v>1053</v>
       </c>
-      <c r="AMC3" s="51" t="s">
+      <c r="AME3" s="51" t="s">
         <v>1054</v>
       </c>
-      <c r="AMD3" s="50"/>
-      <c r="AME3" s="49" t="s">
+      <c r="AMF3" s="50" t="s">
+        <v>1154</v>
+      </c>
+      <c r="AMG3" s="49" t="s">
         <v>1055</v>
       </c>
-      <c r="AMF3" s="50" t="s">
+      <c r="AMH3" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="AMG3" s="50" t="s">
+      <c r="AMI3" s="50" t="s">
         <v>1129</v>
       </c>
-      <c r="AMH3" s="50" t="s">
+      <c r="AMJ3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AMI3" s="50" t="s">
+      <c r="AMK3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AMJ3" s="50" t="s">
+      <c r="AML3" s="50" t="s">
         <v>1060</v>
       </c>
-      <c r="AMK3" s="50" t="s">
+      <c r="AMM3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AML3" s="50" t="s">
+      <c r="AMN3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AMM3" s="50" t="s">
+      <c r="AMO3" s="50" t="s">
         <v>1063</v>
       </c>
-      <c r="AMN3" s="50" t="s">
+      <c r="AMP3" s="50" t="s">
         <v>1128</v>
       </c>
-      <c r="AMO3" s="50" t="s">
+      <c r="AMQ3" s="50" t="s">
         <v>1129</v>
       </c>
-      <c r="AMP3" s="50" t="s">
+      <c r="AMR3" s="50" t="s">
         <v>1130</v>
       </c>
-      <c r="AMQ3" s="50" t="s">
+      <c r="AMS3" s="50" t="s">
         <v>1131</v>
       </c>
-      <c r="AMR3" s="50" t="s">
+      <c r="AMT3" s="50" t="s">
         <v>1068</v>
       </c>
-      <c r="AMS3" s="48" t="s">
+      <c r="AMU3" s="48" t="s">
         <v>1130</v>
       </c>
-      <c r="AMT3" s="48" t="s">
+      <c r="AMV3" s="48" t="s">
         <v>1131</v>
       </c>
-      <c r="AMU3" s="49" t="s">
+      <c r="AMW3" s="49" t="s">
         <v>1071</v>
       </c>
-      <c r="AMV3" s="48" t="s">
+      <c r="AMX3" s="48" t="s">
         <v>1072</v>
       </c>
-      <c r="AMW3" s="48" t="s">
+      <c r="AMY3" s="48" t="s">
         <v>1073</v>
       </c>
-      <c r="AMX3" s="48" t="s">
+      <c r="AMZ3" s="48" t="s">
         <v>1132</v>
       </c>
-      <c r="AMY3" s="48" t="s">
+      <c r="ANA3" s="48" t="s">
         <v>1075</v>
       </c>
-      <c r="AMZ3" s="48" t="s">
+      <c r="ANB3" s="48" t="s">
         <v>1076</v>
       </c>
-      <c r="ANA3" s="50"/>
-      <c r="ANB3" s="56" t="s">
+      <c r="ANC3" s="50"/>
+      <c r="AND3" s="56" t="s">
         <v>1077</v>
       </c>
-      <c r="ANC3" s="48" t="s">
+      <c r="ANE3" s="48" t="s">
         <v>1078</v>
       </c>
-      <c r="AND3" s="48" t="s">
+      <c r="ANF3" s="48" t="s">
         <v>1079</v>
       </c>
-      <c r="ANE3" s="48"/>
-      <c r="ANF3" s="56" t="s">
+      <c r="ANG3" s="48"/>
+      <c r="ANH3" s="56" t="s">
         <v>1080</v>
       </c>
-      <c r="ANG3" s="48" t="s">
+      <c r="ANI3" s="48" t="s">
         <v>1081</v>
       </c>
-      <c r="ANH3" s="48" t="s">
+      <c r="ANJ3" s="48" t="s">
         <v>1082</v>
       </c>
-      <c r="ANI3" s="64"/>
-      <c r="ANJ3" s="56" t="s">
+      <c r="ANK3" s="64"/>
+      <c r="ANL3" s="56" t="s">
         <v>1083</v>
       </c>
-      <c r="ANK3" s="48" t="s">
+      <c r="ANM3" s="48" t="s">
         <v>1084</v>
       </c>
-      <c r="ANL3" s="48" t="s">
+      <c r="ANN3" s="48" t="s">
         <v>1085</v>
       </c>
-      <c r="ANM3" s="64"/>
-      <c r="ANO3" s="53" t="s">
+      <c r="ANO3" s="64"/>
+      <c r="ANQ3" s="53" t="s">
         <v>1086</v>
       </c>
-      <c r="ANP3" s="53" t="s">
+      <c r="ANR3" s="53" t="s">
         <v>1087</v>
       </c>
-      <c r="ANQ3" s="53" t="s">
+      <c r="ANS3" s="53" t="s">
         <v>1088</v>
       </c>
-      <c r="ANR3" s="53" t="s">
+      <c r="ANT3" s="53" t="s">
         <v>1089</v>
       </c>
-      <c r="ANS3" s="53" t="s">
+      <c r="ANU3" s="53" t="s">
         <v>1090</v>
       </c>
-      <c r="ANT3" s="53" t="s">
+      <c r="ANV3" s="53" t="s">
         <v>1091</v>
       </c>
-      <c r="ANU3" s="53" t="s">
+      <c r="ANW3" s="53" t="s">
         <v>1092</v>
       </c>
-      <c r="ANY3" s="66" t="s">
+      <c r="AOA3" s="66" t="s">
         <v>1093</v>
       </c>
-      <c r="ANZ3" s="63" t="s">
+      <c r="AOB3" s="63" t="s">
         <v>1126</v>
       </c>
-      <c r="AOA3" s="63" t="s">
+      <c r="AOC3" s="63" t="s">
         <v>1120</v>
       </c>
-      <c r="AOB3" s="63" t="s">
+      <c r="AOD3" s="63" t="s">
         <v>1134</v>
       </c>
-      <c r="AOC3" s="53" t="s">
+      <c r="AOE3" s="53" t="s">
         <v>1096</v>
       </c>
-      <c r="AOD3" s="53" t="s">
+      <c r="AOF3" s="53" t="s">
         <v>1097</v>
       </c>
-      <c r="AOE3" s="53" t="s">
+      <c r="AOG3" s="53" t="s">
         <v>1121</v>
       </c>
-      <c r="AOF3" s="53" t="s">
+      <c r="AOH3" s="53" t="s">
         <v>1098</v>
       </c>
-      <c r="AOG3" s="53" t="s">
+      <c r="AOI3" s="53" t="s">
         <v>1099</v>
       </c>
-      <c r="AOH3" s="53" t="s">
+      <c r="AOJ3" s="53" t="s">
         <v>1100</v>
       </c>
-      <c r="AOI3" s="53" t="s">
+      <c r="AOK3" s="53" t="s">
         <v>1101</v>
       </c>
-      <c r="AOJ3" s="67" t="s">
+      <c r="AOL3" s="67" t="s">
         <v>1102</v>
       </c>
-      <c r="AOK3" s="53" t="s">
+      <c r="AOM3" s="53" t="s">
         <v>1122</v>
       </c>
-      <c r="AOL3" s="53" t="s">
+      <c r="AON3" s="53" t="s">
         <v>1134</v>
       </c>
-      <c r="AOM3" s="53" t="s">
+      <c r="AOO3" s="53" t="s">
         <v>1104</v>
       </c>
-      <c r="AON3" s="53" t="s">
+      <c r="AOP3" s="53" t="s">
         <v>1105</v>
       </c>
-      <c r="AOO3" s="53" t="s">
+      <c r="AOQ3" s="53" t="s">
         <v>1123</v>
       </c>
-      <c r="AOP3" s="53" t="s">
+      <c r="AOR3" s="53" t="s">
         <v>1106</v>
       </c>
-      <c r="AOQ3" s="53" t="s">
+      <c r="AOS3" s="53" t="s">
         <v>1107</v>
       </c>
-      <c r="AOR3" s="53" t="s">
+      <c r="AOT3" s="53" t="s">
         <v>1108</v>
       </c>
-      <c r="AOS3" s="53" t="s">
+      <c r="AOU3" s="53" t="s">
         <v>1109</v>
       </c>
-      <c r="AOT3" s="67" t="s">
+      <c r="AOV3" s="67" t="s">
         <v>1110</v>
       </c>
-      <c r="AOU3" s="53" t="s">
+      <c r="AOW3" s="53" t="s">
         <v>1111</v>
       </c>
-      <c r="AOV3" s="53" t="s">
+      <c r="AOX3" s="53" t="s">
         <v>1112</v>
       </c>
-      <c r="AOW3" s="53" t="s">
+      <c r="AOY3" s="53" t="s">
         <v>1113</v>
       </c>
-      <c r="AOX3" s="67" t="s">
+      <c r="AOZ3" s="67" t="s">
         <v>1114</v>
       </c>
-      <c r="AOY3" s="53" t="s">
+      <c r="APA3" s="53" t="s">
         <v>1115</v>
       </c>
-      <c r="AOZ3" s="53" t="s">
+      <c r="APB3" s="53" t="s">
         <v>1116</v>
       </c>
-      <c r="APA3" s="53" t="s">
+      <c r="APC3" s="53" t="s">
         <v>1117</v>
       </c>
-      <c r="APB3" s="67" t="s">
+      <c r="APD3" s="67" t="s">
         <v>1118</v>
       </c>
     </row>
-    <row r="4" spans="1:1094" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:1096" x14ac:dyDescent="0.2">
       <c r="A4" s="68" t="s">
         <v>1142</v>
       </c>
       <c r="D4" t="s">
         <v>1138</v>
       </c>
-      <c r="ANO4" s="53" t="s">
+      <c r="ANQ4" s="53" t="s">
         <v>1086</v>
       </c>
-      <c r="ANP4" s="53" t="s">
+      <c r="ANR4" s="53" t="s">
         <v>1087</v>
       </c>
-      <c r="ANQ4" s="53" t="s">
+      <c r="ANS4" s="53" t="s">
         <v>1088</v>
       </c>
-      <c r="ANW4" t="s">
+      <c r="ANY4" t="s">
         <v>1139</v>
       </c>
-      <c r="ANX4" t="s">
+      <c r="ANZ4" t="s">
         <v>1140</v>
       </c>
     </row>
